--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CESI\A4\Projet Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616E5337-9A79-4D59-822A-8632AC2F6841}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DCA827-0E1E-44EE-8B0B-866F81C58F84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
   <si>
     <t>Tâche</t>
   </si>
@@ -64,6 +64,36 @@
   </si>
   <si>
     <t>1.UML</t>
+  </si>
+  <si>
+    <t>2. Serveur .NET</t>
+  </si>
+  <si>
+    <t>3. Serveur JEE</t>
+  </si>
+  <si>
+    <t>4. Client Lourd</t>
+  </si>
+  <si>
+    <t>2. Serveur .Net</t>
+  </si>
+  <si>
+    <t>5. Middleware</t>
+  </si>
+  <si>
+    <t>6. Préparation Soutenance</t>
+  </si>
+  <si>
+    <t>24h</t>
+  </si>
+  <si>
+    <t>56h</t>
+  </si>
+  <si>
+    <t>12h</t>
+  </si>
+  <si>
+    <t>40h</t>
   </si>
 </sst>
 </file>
@@ -71,7 +101,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-40C]d\-mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-40C]d\-mmm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -82,7 +112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,6 +128,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -166,17 +208,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -186,15 +234,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,46 +520,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -530,40 +575,40 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>22</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>23</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>24</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="5">
         <v>25</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="5">
         <v>26</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="5">
         <v>27</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="5">
         <v>28</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="5">
         <v>29</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="5">
         <v>30</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="5">
         <v>1</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="5">
         <v>2</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="5">
         <v>3</v>
       </c>
     </row>
@@ -572,12 +617,12 @@
         <v>6</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="4"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -590,20 +635,22 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="8">
         <v>44004</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="8">
         <v>44006</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="15"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -615,15 +662,15 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="11">
-        <v>2</v>
+      <c r="B5" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -636,36 +683,42 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="11">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="B6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="8">
+        <v>44007</v>
+      </c>
+      <c r="D6" s="8">
+        <v>44013</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="11">
-        <v>4</v>
+      <c r="B7" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -678,31 +731,38 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="11">
-        <v>5</v>
+      <c r="B8" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="8">
+        <v>44014</v>
+      </c>
+      <c r="D9" s="8">
+        <v>44015</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -713,16 +773,14 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -738,74 +796,82 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="13">
-        <v>44004</v>
-      </c>
-      <c r="D11" s="12">
-        <v>44006</v>
-      </c>
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="11">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="B12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="9">
+        <v>44004</v>
+      </c>
+      <c r="D12" s="8">
+        <v>44006</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="11">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="B13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="8">
+        <v>44007</v>
+      </c>
+      <c r="D13" s="8">
+        <v>44013</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="11">
-        <v>4</v>
+      <c r="B14" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -825,8 +891,8 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="11">
-        <v>5</v>
+      <c r="B15" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -846,7 +912,9 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="11"/>
+      <c r="B16" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -860,17 +928,23 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="8">
+        <v>44014</v>
+      </c>
+      <c r="D17" s="8">
+        <v>44015</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -881,24 +955,18 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="12">
-        <v>44004</v>
-      </c>
-      <c r="D18" s="12">
-        <v>44006</v>
-      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -910,10 +978,10 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="11">
-        <v>2</v>
-      </c>
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -932,16 +1000,22 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="11">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="B20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="8">
+        <v>44004</v>
+      </c>
+      <c r="D20" s="8">
+        <v>44006</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -953,8 +1027,8 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="11">
-        <v>4</v>
+      <c r="B21" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -974,8 +1048,8 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="11">
-        <v>5</v>
+      <c r="B22" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -995,7 +1069,9 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="11"/>
+      <c r="B23" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1013,41 +1089,49 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="8">
+        <v>44007</v>
+      </c>
+      <c r="D24" s="8">
+        <v>44013</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="12">
-        <v>44004</v>
-      </c>
-      <c r="D25" s="12">
-        <v>44006</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="B25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="8">
+        <v>44014</v>
+      </c>
+      <c r="D25" s="8">
+        <v>44015</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1055,14 +1139,12 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="11">
-        <v>2</v>
-      </c>
+      <c r="B26" s="7"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1080,10 +1162,10 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="11">
-        <v>3</v>
-      </c>
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1102,16 +1184,22 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="11">
-        <v>4</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="B28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="8">
+        <v>44004</v>
+      </c>
+      <c r="D28" s="8">
+        <v>44006</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1123,8 +1211,8 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="11">
-        <v>5</v>
+      <c r="B29" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1144,7 +1232,9 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="11"/>
+      <c r="B30" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1161,6 +1251,100 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="8">
+        <v>44007</v>
+      </c>
+      <c r="D31" s="8">
+        <v>44012</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="8">
+        <v>44013</v>
+      </c>
+      <c r="D33" s="8">
+        <v>44015</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:E1"/>
